--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/HCL Technologies Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/HCL Technologies Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
@@ -14,14 +14,74 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
-  <si>
-    <t>Year</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>Quarterly Results of HCL Technologies(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Net Sales/Income from operations</t>
+  </si>
+  <si>
+    <t>Total Income From Operations</t>
+  </si>
+  <si>
+    <t>Purchase of Traded Goods</t>
+  </si>
+  <si>
+    <t>Increase/Decrease in Stocks</t>
+  </si>
+  <si>
+    <t>Employees Cost</t>
+  </si>
+  <si>
+    <t>depreciat</t>
+  </si>
+  <si>
+    <t>Other Expenses</t>
+  </si>
+  <si>
+    <t>P/L Before Other Inc. , Int., Excpt. Items &amp; Tax</t>
+  </si>
+  <si>
+    <t>Other Income</t>
+  </si>
+  <si>
+    <t>P/L Before Int., Excpt. Items &amp; Tax</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>P/L Before Exceptional Items &amp; Tax</t>
+  </si>
+  <si>
+    <t>P/L Before Tax</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>P/L After Tax from Ordinary Activities</t>
+  </si>
+  <si>
+    <t>Net Profit/(Loss) For the Period</t>
+  </si>
+  <si>
+    <t>Equity Share Capital</t>
+  </si>
+  <si>
+    <t>Basic EPS</t>
+  </si>
+  <si>
+    <t>Diluted EPS</t>
+  </si>
+  <si>
+    <t>Basic EPS.</t>
+  </si>
+  <si>
+    <t>Diluted EPS.</t>
+  </si>
+  <si>
     <t>Dec '13</t>
   </si>
   <si>
@@ -157,9 +217,6 @@
     <t>Dec '24</t>
   </si>
   <si>
-    <t>Net Sales/Income from operations</t>
-  </si>
-  <si>
     <t>3,836.21</t>
   </si>
   <si>
@@ -293,66 +350,6 @@
   </si>
   <si>
     <t>13,274.00</t>
-  </si>
-  <si>
-    <t>Total Income From Operations</t>
-  </si>
-  <si>
-    <t>Purchase of Traded Goods</t>
-  </si>
-  <si>
-    <t>Increase/Decrease in Stocks</t>
-  </si>
-  <si>
-    <t>Employees Cost</t>
-  </si>
-  <si>
-    <t>depreciat</t>
-  </si>
-  <si>
-    <t>Other Expenses</t>
-  </si>
-  <si>
-    <t>P/L Before Other Inc. , Int., Excpt. Items &amp; Tax</t>
-  </si>
-  <si>
-    <t>Other Income</t>
-  </si>
-  <si>
-    <t>P/L Before Int., Excpt. Items &amp; Tax</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>P/L Before Exceptional Items &amp; Tax</t>
-  </si>
-  <si>
-    <t>P/L Before Tax</t>
-  </si>
-  <si>
-    <t>Tax</t>
-  </si>
-  <si>
-    <t>P/L After Tax from Ordinary Activities</t>
-  </si>
-  <si>
-    <t>Net Profit/(Loss) For the Period</t>
-  </si>
-  <si>
-    <t>Equity Share Capital</t>
-  </si>
-  <si>
-    <t>Basic EPS</t>
-  </si>
-  <si>
-    <t>Diluted EPS</t>
-  </si>
-  <si>
-    <t>Basic EPS.</t>
-  </si>
-  <si>
-    <t>Diluted EPS.</t>
   </si>
 </sst>
 </file>
@@ -710,7 +707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V47"/>
+  <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -720,3156 +717,3127 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1">
+      <c r="U1" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K2" t="s">
-        <v>101</v>
-      </c>
-      <c r="L2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M2" t="s">
-        <v>103</v>
-      </c>
-      <c r="N2" t="s">
-        <v>104</v>
-      </c>
-      <c r="O2" t="s">
-        <v>105</v>
-      </c>
-      <c r="P2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>107</v>
-      </c>
-      <c r="R2" t="s">
-        <v>108</v>
-      </c>
-      <c r="S2" t="s">
-        <v>109</v>
-      </c>
-      <c r="T2" t="s">
-        <v>110</v>
-      </c>
-      <c r="U2" t="s">
-        <v>111</v>
-      </c>
-      <c r="V2" t="s">
-        <v>112</v>
+        <v>67</v>
+      </c>
+      <c r="C2">
+        <v>3836.21</v>
+      </c>
+      <c r="D2">
+        <v>38.8</v>
+      </c>
+      <c r="E2">
+        <v>1.25</v>
+      </c>
+      <c r="F2">
+        <v>1261.07</v>
+      </c>
+      <c r="G2">
+        <v>120.11</v>
+      </c>
+      <c r="H2">
+        <v>1012.66</v>
+      </c>
+      <c r="I2">
+        <v>1442.37</v>
+      </c>
+      <c r="J2">
+        <v>139.65</v>
+      </c>
+      <c r="K2">
+        <v>1582.02</v>
+      </c>
+      <c r="L2">
+        <v>21.54</v>
+      </c>
+      <c r="M2">
+        <v>1560.48</v>
+      </c>
+      <c r="N2">
+        <v>1560.48</v>
+      </c>
+      <c r="O2">
+        <v>262.61</v>
+      </c>
+      <c r="P2">
+        <v>1297.87</v>
+      </c>
+      <c r="Q2">
+        <v>1297.87</v>
+      </c>
+      <c r="R2">
+        <v>139.77</v>
+      </c>
+      <c r="S2">
+        <v>18.58</v>
+      </c>
+      <c r="T2">
+        <v>18.34</v>
+      </c>
+      <c r="U2">
+        <v>18.58</v>
+      </c>
+      <c r="V2">
+        <v>18.34</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C3">
-        <v>3836.21</v>
+        <v>4045.91</v>
+      </c>
+      <c r="D3">
+        <v>38.8</v>
+      </c>
+      <c r="E3">
+        <v>1.25</v>
       </c>
       <c r="F3">
-        <v>1261.07</v>
+        <v>1269.09</v>
       </c>
       <c r="G3">
-        <v>120.11</v>
+        <v>119.04</v>
       </c>
       <c r="H3">
-        <v>1012.66</v>
+        <v>1065.65</v>
       </c>
       <c r="I3">
-        <v>1442.37</v>
+        <v>1592.13</v>
       </c>
       <c r="J3">
-        <v>139.65</v>
+        <v>169.93</v>
       </c>
       <c r="K3">
-        <v>1582.02</v>
+        <v>1762.06</v>
       </c>
       <c r="L3">
-        <v>21.54</v>
+        <v>19.18</v>
       </c>
       <c r="M3">
-        <v>1560.48</v>
+        <v>1742.88</v>
       </c>
       <c r="N3">
-        <v>1560.48</v>
+        <v>1742.88</v>
       </c>
       <c r="O3">
-        <v>262.61</v>
+        <v>330.34</v>
       </c>
       <c r="P3">
-        <v>1297.87</v>
+        <v>1412.54</v>
       </c>
       <c r="Q3">
-        <v>1297.87</v>
+        <v>1412.54</v>
       </c>
       <c r="R3">
-        <v>139.77</v>
+        <v>139.88</v>
       </c>
       <c r="S3">
-        <v>18.58</v>
+        <v>20.2</v>
       </c>
       <c r="T3">
-        <v>18.34</v>
+        <v>19.96</v>
       </c>
       <c r="U3">
-        <v>18.58</v>
+        <v>20.2</v>
       </c>
       <c r="V3">
-        <v>18.34</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C4">
-        <v>4045.91</v>
+        <v>4771.44</v>
+      </c>
+      <c r="D4">
+        <v>38.8</v>
+      </c>
+      <c r="E4">
+        <v>1.25</v>
       </c>
       <c r="F4">
-        <v>1269.09</v>
+        <v>1307.01</v>
       </c>
       <c r="G4">
-        <v>119.04</v>
+        <v>127.24</v>
       </c>
       <c r="H4">
-        <v>1065.65</v>
+        <v>1050.21</v>
       </c>
       <c r="I4">
-        <v>1592.13</v>
+        <v>2286.98</v>
       </c>
       <c r="J4">
-        <v>169.93</v>
+        <v>235.27</v>
       </c>
       <c r="K4">
-        <v>1762.06</v>
+        <v>2522.25</v>
       </c>
       <c r="L4">
-        <v>19.18</v>
+        <v>22.46</v>
       </c>
       <c r="M4">
-        <v>1742.88</v>
+        <v>2499.79</v>
       </c>
       <c r="N4">
-        <v>1742.88</v>
+        <v>2499.79</v>
       </c>
       <c r="O4">
-        <v>330.34</v>
+        <v>516.55</v>
       </c>
       <c r="P4">
-        <v>1412.54</v>
+        <v>1983.24</v>
       </c>
       <c r="Q4">
-        <v>1412.54</v>
+        <v>1983.24</v>
       </c>
       <c r="R4">
-        <v>139.88</v>
+        <v>140</v>
       </c>
       <c r="S4">
-        <v>20.2</v>
+        <v>28.34</v>
       </c>
       <c r="T4">
-        <v>19.96</v>
+        <v>28.02</v>
       </c>
       <c r="U4">
-        <v>20.2</v>
+        <v>28.34</v>
       </c>
       <c r="V4">
-        <v>19.96</v>
+        <v>28.02</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C5">
-        <v>4771.44</v>
+        <v>4054.4</v>
+      </c>
+      <c r="D5">
+        <v>38.8</v>
+      </c>
+      <c r="E5">
+        <v>1.25</v>
       </c>
       <c r="F5">
-        <v>1307.01</v>
+        <v>1368.13</v>
       </c>
       <c r="G5">
-        <v>127.24</v>
+        <v>69.34999999999999</v>
       </c>
       <c r="H5">
-        <v>1050.21</v>
+        <v>888.87</v>
       </c>
       <c r="I5">
-        <v>2286.98</v>
+        <v>1728.05</v>
       </c>
       <c r="J5">
-        <v>235.27</v>
+        <v>365.08</v>
       </c>
       <c r="K5">
-        <v>2522.25</v>
+        <v>2093.13</v>
       </c>
       <c r="L5">
-        <v>22.46</v>
+        <v>21.49</v>
       </c>
       <c r="M5">
-        <v>2499.79</v>
+        <v>2071.64</v>
       </c>
       <c r="N5">
-        <v>2499.79</v>
+        <v>2071.64</v>
       </c>
       <c r="O5">
-        <v>516.55</v>
+        <v>389.08</v>
       </c>
       <c r="P5">
-        <v>1983.24</v>
+        <v>1682.56</v>
       </c>
       <c r="Q5">
-        <v>1983.24</v>
+        <v>1682.56</v>
       </c>
       <c r="R5">
-        <v>140</v>
+        <v>140.26</v>
       </c>
       <c r="S5">
-        <v>28.34</v>
+        <v>24.02</v>
       </c>
       <c r="T5">
-        <v>28.02</v>
+        <v>23.8</v>
       </c>
       <c r="U5">
-        <v>28.34</v>
+        <v>24.02</v>
       </c>
       <c r="V5">
-        <v>28.02</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C6">
-        <v>4054.4</v>
+        <v>4247.59</v>
+      </c>
+      <c r="D6">
+        <v>38.8</v>
+      </c>
+      <c r="E6">
+        <v>1.25</v>
       </c>
       <c r="F6">
-        <v>1368.13</v>
+        <v>1457.59</v>
       </c>
       <c r="G6">
-        <v>69.34999999999999</v>
+        <v>72.28</v>
       </c>
       <c r="H6">
-        <v>888.87</v>
+        <v>924.99</v>
       </c>
       <c r="I6">
-        <v>1728.05</v>
+        <v>1792.73</v>
       </c>
       <c r="J6">
-        <v>365.08</v>
+        <v>253.08</v>
       </c>
       <c r="K6">
-        <v>2093.13</v>
+        <v>2045.81</v>
       </c>
       <c r="L6">
-        <v>21.49</v>
+        <v>12.47</v>
       </c>
       <c r="M6">
-        <v>2071.64</v>
+        <v>2033.34</v>
       </c>
       <c r="N6">
-        <v>2071.64</v>
+        <v>2033.34</v>
       </c>
       <c r="O6">
-        <v>389.08</v>
+        <v>369.87</v>
       </c>
       <c r="P6">
-        <v>1682.56</v>
+        <v>1663.47</v>
       </c>
       <c r="Q6">
-        <v>1682.56</v>
+        <v>1663.47</v>
       </c>
       <c r="R6">
-        <v>140.26</v>
+        <v>140.47</v>
       </c>
       <c r="S6">
-        <v>24.02</v>
+        <v>23.71</v>
       </c>
       <c r="T6">
-        <v>23.8</v>
+        <v>23.57</v>
       </c>
       <c r="U6">
-        <v>24.02</v>
+        <v>23.71</v>
       </c>
       <c r="V6">
-        <v>23.8</v>
+        <v>23.57</v>
       </c>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C7">
-        <v>4247.59</v>
+        <v>4385.95</v>
+      </c>
+      <c r="D7">
+        <v>38.8</v>
+      </c>
+      <c r="E7">
+        <v>1.25</v>
       </c>
       <c r="F7">
-        <v>1457.59</v>
+        <v>1535.66</v>
       </c>
       <c r="G7">
-        <v>72.28</v>
+        <v>74.52</v>
       </c>
       <c r="H7">
-        <v>924.99</v>
+        <v>1101.37</v>
       </c>
       <c r="I7">
-        <v>1792.73</v>
+        <v>1674.4</v>
       </c>
       <c r="J7">
-        <v>253.08</v>
+        <v>251.97</v>
       </c>
       <c r="K7">
-        <v>2045.81</v>
+        <v>1926.37</v>
       </c>
       <c r="L7">
-        <v>12.47</v>
+        <v>12.21</v>
       </c>
       <c r="M7">
-        <v>2033.34</v>
+        <v>1914.16</v>
       </c>
       <c r="N7">
-        <v>2033.34</v>
+        <v>1914.16</v>
       </c>
       <c r="O7">
-        <v>369.87</v>
+        <v>349.42</v>
       </c>
       <c r="P7">
-        <v>1663.47</v>
+        <v>1564.74</v>
       </c>
       <c r="Q7">
-        <v>1663.47</v>
+        <v>1564.74</v>
       </c>
       <c r="R7">
-        <v>140.47</v>
+        <v>281.14</v>
       </c>
       <c r="S7">
-        <v>23.71</v>
+        <v>11.13</v>
       </c>
       <c r="T7">
-        <v>23.57</v>
+        <v>11.08</v>
       </c>
       <c r="U7">
-        <v>23.71</v>
+        <v>11.13</v>
       </c>
       <c r="V7">
-        <v>23.57</v>
+        <v>11.08</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C8">
-        <v>4385.95</v>
+        <v>4465.5</v>
+      </c>
+      <c r="D8">
+        <v>111.33</v>
+      </c>
+      <c r="E8">
+        <v>-25.39</v>
       </c>
       <c r="F8">
-        <v>1535.66</v>
+        <v>1563.24</v>
       </c>
       <c r="G8">
-        <v>74.52</v>
+        <v>83.77</v>
       </c>
       <c r="H8">
-        <v>1101.37</v>
+        <v>1243.3</v>
       </c>
       <c r="I8">
-        <v>1674.4</v>
+        <v>1489.25</v>
       </c>
       <c r="J8">
-        <v>251.97</v>
+        <v>204.61</v>
       </c>
       <c r="K8">
-        <v>1926.37</v>
+        <v>1693.86</v>
       </c>
       <c r="L8">
-        <v>12.21</v>
+        <v>14.47</v>
       </c>
       <c r="M8">
-        <v>1914.16</v>
+        <v>1679.39</v>
       </c>
       <c r="N8">
-        <v>1914.16</v>
+        <v>1679.39</v>
       </c>
       <c r="O8">
-        <v>349.42</v>
+        <v>244.22</v>
       </c>
       <c r="P8">
-        <v>1564.74</v>
+        <v>1435.17</v>
       </c>
       <c r="Q8">
-        <v>1564.74</v>
+        <v>1435.17</v>
       </c>
       <c r="R8">
-        <v>281.14</v>
+        <v>281.2</v>
       </c>
       <c r="S8">
-        <v>11.13</v>
+        <v>10.21</v>
       </c>
       <c r="T8">
-        <v>11.08</v>
+        <v>10.15</v>
       </c>
       <c r="U8">
-        <v>11.13</v>
+        <v>10.21</v>
       </c>
       <c r="V8">
-        <v>11.08</v>
+        <v>10.15</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C9">
-        <v>4465.5</v>
+        <v>4350.15</v>
       </c>
       <c r="D9">
-        <v>111.33</v>
+        <v>47.6</v>
       </c>
       <c r="E9">
-        <v>-25.39</v>
+        <v>-28.09</v>
       </c>
       <c r="F9">
-        <v>1563.24</v>
+        <v>1635.14</v>
       </c>
       <c r="G9">
-        <v>83.77</v>
+        <v>88.38</v>
       </c>
       <c r="H9">
-        <v>1243.3</v>
+        <v>1115.68</v>
       </c>
       <c r="I9">
-        <v>1489.25</v>
+        <v>1491.44</v>
       </c>
       <c r="J9">
-        <v>204.61</v>
+        <v>268.11</v>
       </c>
       <c r="K9">
-        <v>1693.86</v>
+        <v>1759.55</v>
       </c>
       <c r="L9">
-        <v>14.47</v>
+        <v>16.65</v>
       </c>
       <c r="M9">
-        <v>1679.39</v>
+        <v>1742.9</v>
       </c>
       <c r="N9">
-        <v>1679.39</v>
+        <v>1742.9</v>
       </c>
       <c r="O9">
-        <v>244.22</v>
+        <v>343.61</v>
       </c>
       <c r="P9">
-        <v>1435.17</v>
+        <v>1399.29</v>
       </c>
       <c r="Q9">
-        <v>1435.17</v>
+        <v>1399.29</v>
       </c>
       <c r="R9">
-        <v>281.2</v>
+        <v>281.25</v>
       </c>
       <c r="S9">
-        <v>10.21</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="T9">
-        <v>10.15</v>
+        <v>9.9</v>
       </c>
       <c r="U9">
-        <v>10.21</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="V9">
-        <v>10.15</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C10">
-        <v>4350.15</v>
+        <v>4471.85</v>
       </c>
       <c r="D10">
-        <v>47.6</v>
+        <v>37.18</v>
       </c>
       <c r="E10">
-        <v>-28.09</v>
+        <v>-16.08</v>
       </c>
       <c r="F10">
-        <v>1635.14</v>
+        <v>1651.37</v>
       </c>
       <c r="G10">
-        <v>88.38</v>
+        <v>95.70999999999999</v>
       </c>
       <c r="H10">
-        <v>1115.68</v>
+        <v>1010.95</v>
       </c>
       <c r="I10">
-        <v>1491.44</v>
+        <v>1692.72</v>
       </c>
       <c r="J10">
-        <v>268.11</v>
+        <v>361.13</v>
       </c>
       <c r="K10">
-        <v>1759.55</v>
+        <v>2053.85</v>
       </c>
       <c r="L10">
-        <v>16.65</v>
+        <v>14.74</v>
       </c>
       <c r="M10">
-        <v>1742.9</v>
+        <v>2039.11</v>
       </c>
       <c r="N10">
-        <v>1742.9</v>
+        <v>2039.11</v>
       </c>
       <c r="O10">
-        <v>343.61</v>
+        <v>389.45</v>
       </c>
       <c r="P10">
-        <v>1399.29</v>
+        <v>1649.66</v>
       </c>
       <c r="Q10">
-        <v>1399.29</v>
+        <v>1649.66</v>
       </c>
       <c r="R10">
-        <v>281.25</v>
+        <v>281.86</v>
       </c>
       <c r="S10">
-        <v>9.949999999999999</v>
+        <v>11.72</v>
       </c>
       <c r="T10">
-        <v>9.9</v>
+        <v>11.68</v>
       </c>
       <c r="U10">
-        <v>9.949999999999999</v>
+        <v>11.72</v>
       </c>
       <c r="V10">
-        <v>9.9</v>
+        <v>11.68</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C11">
-        <v>4471.85</v>
+        <v>4612.64</v>
       </c>
       <c r="D11">
-        <v>37.18</v>
+        <v>77.88</v>
       </c>
       <c r="E11">
-        <v>-16.08</v>
+        <v>-2.62</v>
       </c>
       <c r="F11">
-        <v>1651.37</v>
+        <v>1580.41</v>
       </c>
       <c r="G11">
-        <v>95.70999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="H11">
-        <v>1010.95</v>
+        <v>1131.49</v>
       </c>
       <c r="I11">
-        <v>1692.72</v>
+        <v>1732.68</v>
       </c>
       <c r="J11">
-        <v>361.13</v>
+        <v>283.4</v>
       </c>
       <c r="K11">
-        <v>2053.85</v>
+        <v>2016.08</v>
       </c>
       <c r="L11">
-        <v>14.74</v>
+        <v>14.43</v>
       </c>
       <c r="M11">
-        <v>2039.11</v>
+        <v>2001.65</v>
       </c>
       <c r="N11">
-        <v>2039.11</v>
+        <v>2001.65</v>
       </c>
       <c r="O11">
-        <v>389.45</v>
+        <v>330.14</v>
       </c>
       <c r="P11">
-        <v>1649.66</v>
+        <v>1671.51</v>
       </c>
       <c r="Q11">
-        <v>1649.66</v>
+        <v>1671.51</v>
       </c>
       <c r="R11">
-        <v>281.86</v>
+        <v>282.08</v>
       </c>
       <c r="S11">
-        <v>11.72</v>
+        <v>11.86</v>
       </c>
       <c r="T11">
-        <v>11.68</v>
+        <v>11.83</v>
       </c>
       <c r="U11">
-        <v>11.72</v>
+        <v>11.86</v>
       </c>
       <c r="V11">
-        <v>11.68</v>
+        <v>11.83</v>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C12">
-        <v>4612.64</v>
+        <v>4608.8</v>
       </c>
       <c r="D12">
-        <v>77.88</v>
+        <v>64.52</v>
       </c>
       <c r="E12">
-        <v>-2.62</v>
+        <v>-38.35</v>
       </c>
       <c r="F12">
-        <v>1580.41</v>
+        <v>1569.51</v>
       </c>
       <c r="G12">
-        <v>92.8</v>
+        <v>93.36</v>
       </c>
       <c r="H12">
-        <v>1131.49</v>
+        <v>904.0599999999999</v>
       </c>
       <c r="I12">
-        <v>1732.68</v>
+        <v>2015.7</v>
       </c>
       <c r="J12">
-        <v>283.4</v>
+        <v>220.01</v>
       </c>
       <c r="K12">
-        <v>2016.08</v>
+        <v>2235.71</v>
       </c>
       <c r="L12">
-        <v>14.43</v>
+        <v>10.27</v>
       </c>
       <c r="M12">
-        <v>2001.65</v>
+        <v>2225.44</v>
       </c>
       <c r="N12">
-        <v>2001.65</v>
+        <v>2225.44</v>
       </c>
       <c r="O12">
-        <v>330.14</v>
+        <v>426.15</v>
       </c>
       <c r="P12">
-        <v>1671.51</v>
+        <v>1799.29</v>
       </c>
       <c r="Q12">
-        <v>1671.51</v>
+        <v>1799.29</v>
       </c>
       <c r="R12">
-        <v>282.08</v>
+        <v>282.15</v>
       </c>
       <c r="S12">
-        <v>11.86</v>
+        <v>12.76</v>
       </c>
       <c r="T12">
-        <v>11.83</v>
+        <v>12.74</v>
       </c>
       <c r="U12">
-        <v>11.86</v>
+        <v>12.76</v>
       </c>
       <c r="V12">
-        <v>11.83</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C13">
-        <v>4608.8</v>
+        <v>4705.77</v>
       </c>
       <c r="D13">
-        <v>64.52</v>
+        <v>14.51</v>
       </c>
       <c r="E13">
-        <v>-38.35</v>
+        <v>9</v>
       </c>
       <c r="F13">
-        <v>1569.51</v>
+        <v>1639.67</v>
       </c>
       <c r="G13">
-        <v>93.36</v>
+        <v>102.27</v>
       </c>
       <c r="H13">
-        <v>904.0599999999999</v>
+        <v>1080.12</v>
       </c>
       <c r="I13">
-        <v>2015.7</v>
+        <v>1860.2</v>
       </c>
       <c r="J13">
-        <v>220.01</v>
+        <v>237.87</v>
       </c>
       <c r="K13">
-        <v>2235.71</v>
+        <v>2098.07</v>
       </c>
       <c r="L13">
-        <v>10.27</v>
+        <v>2.49</v>
       </c>
       <c r="M13">
-        <v>2225.44</v>
+        <v>2095.58</v>
       </c>
       <c r="N13">
-        <v>2225.44</v>
+        <v>2095.58</v>
       </c>
       <c r="O13">
-        <v>426.15</v>
+        <v>404.86</v>
       </c>
       <c r="P13">
-        <v>1799.29</v>
+        <v>1690.72</v>
       </c>
       <c r="Q13">
-        <v>1799.29</v>
+        <v>1690.72</v>
       </c>
       <c r="R13">
-        <v>282.15</v>
+        <v>282.18</v>
       </c>
       <c r="S13">
-        <v>12.76</v>
+        <v>11.98</v>
       </c>
       <c r="T13">
-        <v>12.74</v>
+        <v>11.97</v>
       </c>
       <c r="U13">
-        <v>12.76</v>
+        <v>11.98</v>
       </c>
       <c r="V13">
-        <v>12.74</v>
+        <v>11.97</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C14">
-        <v>4705.77</v>
+        <v>4889.26</v>
       </c>
       <c r="D14">
-        <v>14.51</v>
+        <v>23.81</v>
       </c>
       <c r="E14">
-        <v>9</v>
+        <v>-8.779999999999999</v>
       </c>
       <c r="F14">
-        <v>1639.67</v>
+        <v>1694.91</v>
       </c>
       <c r="G14">
-        <v>102.27</v>
+        <v>123.42</v>
       </c>
       <c r="H14">
-        <v>1080.12</v>
+        <v>1153.58</v>
       </c>
       <c r="I14">
-        <v>1860.2</v>
+        <v>1902.32</v>
       </c>
       <c r="J14">
-        <v>237.87</v>
+        <v>187.53</v>
       </c>
       <c r="K14">
-        <v>2098.07</v>
+        <v>2089.85</v>
       </c>
       <c r="L14">
-        <v>2.49</v>
+        <v>9.43</v>
       </c>
       <c r="M14">
-        <v>2095.58</v>
+        <v>2080.42</v>
       </c>
       <c r="N14">
-        <v>2095.58</v>
+        <v>2080.42</v>
       </c>
       <c r="O14">
-        <v>404.86</v>
+        <v>418.88</v>
       </c>
       <c r="P14">
-        <v>1690.72</v>
+        <v>1661.54</v>
       </c>
       <c r="Q14">
-        <v>1690.72</v>
+        <v>1661.54</v>
       </c>
       <c r="R14">
-        <v>282.18</v>
+        <v>282.24</v>
       </c>
       <c r="S14">
-        <v>11.98</v>
+        <v>11.78</v>
       </c>
       <c r="T14">
-        <v>11.97</v>
+        <v>11.76</v>
       </c>
       <c r="U14">
-        <v>11.98</v>
+        <v>11.78</v>
       </c>
       <c r="V14">
-        <v>11.97</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C15">
-        <v>4889.26</v>
+        <v>5114.48</v>
       </c>
       <c r="D15">
-        <v>23.81</v>
+        <v>20.47</v>
       </c>
       <c r="E15">
-        <v>-8.779999999999999</v>
+        <v>76.76000000000001</v>
       </c>
       <c r="F15">
-        <v>1694.91</v>
+        <v>1939.29</v>
       </c>
       <c r="G15">
-        <v>123.42</v>
+        <v>159.84</v>
       </c>
       <c r="H15">
-        <v>1153.58</v>
+        <v>1240.29</v>
       </c>
       <c r="I15">
-        <v>1902.32</v>
+        <v>1677.83</v>
       </c>
       <c r="J15">
-        <v>187.53</v>
+        <v>230.64</v>
       </c>
       <c r="K15">
-        <v>2089.85</v>
+        <v>1908.47</v>
       </c>
       <c r="L15">
-        <v>9.43</v>
+        <v>33.84</v>
       </c>
       <c r="M15">
-        <v>2080.42</v>
+        <v>1874.63</v>
       </c>
       <c r="N15">
-        <v>2080.42</v>
+        <v>1874.63</v>
       </c>
       <c r="O15">
-        <v>418.88</v>
+        <v>153.49</v>
       </c>
       <c r="P15">
-        <v>1661.54</v>
+        <v>1721.14</v>
       </c>
       <c r="Q15">
-        <v>1661.54</v>
+        <v>1721.14</v>
       </c>
       <c r="R15">
-        <v>282.24</v>
+        <v>285.36</v>
       </c>
       <c r="S15">
-        <v>11.78</v>
+        <v>12.06</v>
       </c>
       <c r="T15">
-        <v>11.76</v>
+        <v>12.05</v>
       </c>
       <c r="U15">
-        <v>11.78</v>
+        <v>12.06</v>
       </c>
       <c r="V15">
-        <v>11.76</v>
+        <v>12.05</v>
       </c>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C16">
-        <v>5114.48</v>
+        <v>5179</v>
       </c>
       <c r="D16">
-        <v>20.47</v>
+        <v>37</v>
       </c>
       <c r="E16">
-        <v>76.76000000000001</v>
+        <v>35</v>
       </c>
       <c r="F16">
-        <v>1939.29</v>
+        <v>1761</v>
       </c>
       <c r="G16">
-        <v>159.84</v>
+        <v>131</v>
       </c>
       <c r="H16">
-        <v>1240.29</v>
+        <v>1234</v>
       </c>
       <c r="I16">
-        <v>1677.83</v>
+        <v>1981</v>
       </c>
       <c r="J16">
-        <v>230.64</v>
+        <v>199</v>
       </c>
       <c r="K16">
-        <v>1908.47</v>
+        <v>2180</v>
       </c>
       <c r="L16">
-        <v>33.84</v>
+        <v>6</v>
       </c>
       <c r="M16">
-        <v>1874.63</v>
+        <v>2174</v>
       </c>
       <c r="N16">
-        <v>1874.63</v>
+        <v>2174</v>
       </c>
       <c r="O16">
-        <v>153.49</v>
+        <v>412</v>
       </c>
       <c r="P16">
-        <v>1721.14</v>
+        <v>1762</v>
       </c>
       <c r="Q16">
-        <v>1721.14</v>
+        <v>1762</v>
       </c>
       <c r="R16">
         <v>285.36</v>
       </c>
       <c r="S16">
-        <v>12.06</v>
+        <v>12.35</v>
       </c>
       <c r="T16">
-        <v>12.05</v>
+        <v>12.28</v>
       </c>
       <c r="U16">
-        <v>12.06</v>
+        <v>12.35</v>
       </c>
       <c r="V16">
-        <v>12.05</v>
+        <v>12.28</v>
       </c>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C17">
-        <v>5179</v>
+        <v>5460</v>
       </c>
       <c r="D17">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E17">
-        <v>35</v>
+        <v>-4</v>
       </c>
       <c r="F17">
-        <v>1761</v>
+        <v>1890</v>
       </c>
       <c r="G17">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="H17">
-        <v>1234</v>
+        <v>1243</v>
       </c>
       <c r="I17">
-        <v>1981</v>
+        <v>2115</v>
       </c>
       <c r="J17">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="K17">
-        <v>2180</v>
+        <v>2277</v>
       </c>
       <c r="L17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M17">
-        <v>2174</v>
+        <v>2272</v>
       </c>
       <c r="N17">
-        <v>2174</v>
+        <v>2272</v>
       </c>
       <c r="O17">
-        <v>412</v>
+        <v>482</v>
       </c>
       <c r="P17">
-        <v>1762</v>
+        <v>1790</v>
       </c>
       <c r="Q17">
-        <v>1762</v>
+        <v>1790</v>
       </c>
       <c r="R17">
-        <v>285.36</v>
+        <v>278.41</v>
       </c>
       <c r="S17">
-        <v>12.35</v>
+        <v>12.84</v>
       </c>
       <c r="T17">
-        <v>12.28</v>
+        <v>12.83</v>
       </c>
       <c r="U17">
-        <v>12.35</v>
+        <v>12.84</v>
       </c>
       <c r="V17">
-        <v>12.28</v>
+        <v>12.83</v>
       </c>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C18">
-        <v>5460</v>
+        <v>5723</v>
       </c>
       <c r="D18">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E18">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="F18">
-        <v>1890</v>
+        <v>1878</v>
       </c>
       <c r="G18">
-        <v>184</v>
+        <v>294</v>
       </c>
       <c r="H18">
-        <v>1243</v>
+        <v>1271</v>
       </c>
       <c r="I18">
-        <v>2115</v>
+        <v>2247</v>
       </c>
       <c r="J18">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="K18">
-        <v>2277</v>
+        <v>2390</v>
       </c>
       <c r="L18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M18">
-        <v>2272</v>
+        <v>2384</v>
       </c>
       <c r="N18">
-        <v>2272</v>
+        <v>2384</v>
       </c>
       <c r="O18">
-        <v>482</v>
+        <v>415</v>
       </c>
       <c r="P18">
-        <v>1790</v>
+        <v>1969</v>
       </c>
       <c r="Q18">
-        <v>1790</v>
+        <v>1969</v>
       </c>
       <c r="R18">
         <v>278.41</v>
       </c>
       <c r="S18">
-        <v>12.84</v>
+        <v>14.14</v>
       </c>
       <c r="T18">
-        <v>12.83</v>
+        <v>14.13</v>
       </c>
       <c r="U18">
-        <v>12.84</v>
+        <v>14.14</v>
       </c>
       <c r="V18">
-        <v>12.83</v>
+        <v>14.13</v>
       </c>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C19">
-        <v>5723</v>
+        <v>5711</v>
       </c>
       <c r="D19">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E19">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="F19">
-        <v>1878</v>
+        <v>1836</v>
       </c>
       <c r="G19">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="H19">
-        <v>1271</v>
+        <v>1433</v>
       </c>
       <c r="I19">
-        <v>2247</v>
+        <v>2103</v>
       </c>
       <c r="J19">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="K19">
-        <v>2390</v>
+        <v>2301</v>
       </c>
       <c r="L19">
         <v>6</v>
       </c>
       <c r="M19">
-        <v>2384</v>
+        <v>2295</v>
       </c>
       <c r="N19">
-        <v>2384</v>
+        <v>2295</v>
       </c>
       <c r="O19">
-        <v>415</v>
+        <v>454</v>
       </c>
       <c r="P19">
-        <v>1969</v>
+        <v>1841</v>
       </c>
       <c r="Q19">
-        <v>1969</v>
+        <v>1841</v>
       </c>
       <c r="R19">
-        <v>278.41</v>
+        <v>278.45</v>
       </c>
       <c r="S19">
-        <v>14.14</v>
+        <v>13.22</v>
       </c>
       <c r="T19">
-        <v>14.13</v>
+        <v>13.21</v>
       </c>
       <c r="U19">
-        <v>14.14</v>
+        <v>13.22</v>
       </c>
       <c r="V19">
-        <v>14.13</v>
+        <v>13.21</v>
       </c>
     </row>
     <row r="20" spans="1:22">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C20">
-        <v>5711</v>
+        <v>6013</v>
       </c>
       <c r="D20">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F20">
-        <v>1836</v>
+        <v>1861</v>
       </c>
       <c r="G20">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="H20">
-        <v>1433</v>
+        <v>1626</v>
       </c>
       <c r="I20">
-        <v>2103</v>
+        <v>2167</v>
       </c>
       <c r="J20">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="K20">
-        <v>2301</v>
+        <v>2378</v>
       </c>
       <c r="L20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M20">
-        <v>2295</v>
+        <v>2373</v>
       </c>
       <c r="N20">
-        <v>2295</v>
+        <v>2373</v>
       </c>
       <c r="O20">
-        <v>454</v>
+        <v>387</v>
       </c>
       <c r="P20">
-        <v>1841</v>
+        <v>1986</v>
       </c>
       <c r="Q20">
-        <v>1841</v>
+        <v>1986</v>
       </c>
       <c r="R20">
         <v>278.45</v>
       </c>
       <c r="S20">
-        <v>13.22</v>
+        <v>14.26</v>
       </c>
       <c r="T20">
-        <v>13.21</v>
+        <v>14.26</v>
       </c>
       <c r="U20">
-        <v>13.22</v>
+        <v>14.26</v>
       </c>
       <c r="V20">
-        <v>13.21</v>
+        <v>14.26</v>
       </c>
     </row>
     <row r="21" spans="1:22">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C21">
-        <v>6013</v>
+        <v>6485</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>31</v>
+        <v>-6</v>
       </c>
       <c r="F21">
-        <v>1861</v>
+        <v>2008</v>
       </c>
       <c r="G21">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H21">
-        <v>1626</v>
+        <v>1773</v>
       </c>
       <c r="I21">
-        <v>2167</v>
+        <v>2377</v>
       </c>
       <c r="J21">
-        <v>211</v>
+        <v>264</v>
       </c>
       <c r="K21">
-        <v>2378</v>
+        <v>2641</v>
       </c>
       <c r="L21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M21">
-        <v>2373</v>
+        <v>2637</v>
       </c>
       <c r="N21">
-        <v>2373</v>
+        <v>2637</v>
       </c>
       <c r="O21">
-        <v>387</v>
+        <v>483</v>
       </c>
       <c r="P21">
-        <v>1986</v>
+        <v>2154</v>
       </c>
       <c r="Q21">
-        <v>1986</v>
+        <v>2154</v>
       </c>
       <c r="R21">
-        <v>278.45</v>
+        <v>279</v>
       </c>
       <c r="S21">
-        <v>14.26</v>
+        <v>15.47</v>
       </c>
       <c r="T21">
-        <v>14.26</v>
+        <v>15.43</v>
       </c>
       <c r="U21">
-        <v>14.26</v>
+        <v>15.47</v>
       </c>
       <c r="V21">
-        <v>14.26</v>
+        <v>15.43</v>
       </c>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C22">
-        <v>6485</v>
+        <v>6556</v>
       </c>
       <c r="D22">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="E22">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="F22">
-        <v>2008</v>
+        <v>2064</v>
       </c>
       <c r="G22">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="H22">
-        <v>1773</v>
+        <v>1825</v>
       </c>
       <c r="I22">
-        <v>2377</v>
+        <v>2270</v>
       </c>
       <c r="J22">
-        <v>264</v>
+        <v>116</v>
       </c>
       <c r="K22">
-        <v>2641</v>
+        <v>2386</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M22">
-        <v>2637</v>
+        <v>2381</v>
       </c>
       <c r="N22">
-        <v>2637</v>
+        <v>2381</v>
       </c>
       <c r="O22">
-        <v>483</v>
+        <v>367</v>
       </c>
       <c r="P22">
-        <v>2154</v>
+        <v>2014</v>
       </c>
       <c r="Q22">
-        <v>2154</v>
+        <v>2014</v>
       </c>
       <c r="R22">
-        <v>279</v>
+        <v>271.25</v>
       </c>
       <c r="S22">
-        <v>15.47</v>
+        <v>14.81</v>
       </c>
       <c r="T22">
-        <v>15.43</v>
+        <v>14.8</v>
       </c>
       <c r="U22">
-        <v>15.47</v>
+        <v>14.81</v>
       </c>
       <c r="V22">
-        <v>15.43</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="23" spans="1:22">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C23">
-        <v>6556</v>
+        <v>6958</v>
       </c>
       <c r="D23">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="E23">
-        <v>-8</v>
+        <v>5</v>
       </c>
       <c r="F23">
-        <v>2064</v>
+        <v>2146</v>
       </c>
       <c r="G23">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="H23">
-        <v>1825</v>
+        <v>2127</v>
       </c>
       <c r="I23">
-        <v>2270</v>
+        <v>2328</v>
       </c>
       <c r="J23">
-        <v>116</v>
+        <v>214</v>
       </c>
       <c r="K23">
-        <v>2386</v>
+        <v>2542</v>
       </c>
       <c r="L23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M23">
-        <v>2381</v>
+        <v>2540</v>
       </c>
       <c r="N23">
-        <v>2381</v>
+        <v>2540</v>
       </c>
       <c r="O23">
-        <v>367</v>
+        <v>509</v>
       </c>
       <c r="P23">
-        <v>2014</v>
+        <v>2031</v>
       </c>
       <c r="Q23">
-        <v>2014</v>
+        <v>2031</v>
       </c>
       <c r="R23">
         <v>271.25</v>
       </c>
       <c r="S23">
-        <v>14.81</v>
+        <v>14.97</v>
       </c>
       <c r="T23">
-        <v>14.8</v>
+        <v>14.97</v>
       </c>
       <c r="U23">
-        <v>14.81</v>
+        <v>14.97</v>
       </c>
       <c r="V23">
-        <v>14.8</v>
+        <v>14.97</v>
       </c>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C24">
-        <v>6958</v>
+        <v>6765</v>
       </c>
       <c r="D24">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>-28</v>
       </c>
       <c r="F24">
-        <v>2146</v>
+        <v>2329</v>
       </c>
       <c r="G24">
-        <v>318</v>
+        <v>393</v>
       </c>
       <c r="H24">
-        <v>2127</v>
+        <v>1891</v>
       </c>
       <c r="I24">
-        <v>2328</v>
+        <v>2135</v>
       </c>
       <c r="J24">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="K24">
-        <v>2542</v>
+        <v>2344</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="M24">
-        <v>2540</v>
+        <v>2317</v>
       </c>
       <c r="N24">
-        <v>2540</v>
+        <v>2317</v>
       </c>
       <c r="O24">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="P24">
-        <v>2031</v>
+        <v>1793</v>
       </c>
       <c r="Q24">
-        <v>2031</v>
+        <v>1793</v>
       </c>
       <c r="R24">
         <v>271.25</v>
       </c>
       <c r="S24">
-        <v>14.97</v>
+        <v>13.22</v>
       </c>
       <c r="T24">
-        <v>14.97</v>
+        <v>13.21</v>
       </c>
       <c r="U24">
-        <v>14.97</v>
+        <v>13.22</v>
       </c>
       <c r="V24">
-        <v>14.97</v>
+        <v>13.21</v>
       </c>
     </row>
     <row r="25" spans="1:22">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C25">
-        <v>6765</v>
+        <v>8130</v>
       </c>
       <c r="D25">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>-28</v>
+        <v>27</v>
       </c>
       <c r="F25">
-        <v>2329</v>
+        <v>2444</v>
       </c>
       <c r="G25">
         <v>393</v>
       </c>
       <c r="H25">
-        <v>1891</v>
+        <v>2486</v>
       </c>
       <c r="I25">
-        <v>2135</v>
+        <v>2778</v>
       </c>
       <c r="J25">
-        <v>209</v>
+        <v>93</v>
       </c>
       <c r="K25">
-        <v>2344</v>
+        <v>2871</v>
       </c>
       <c r="L25">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="M25">
-        <v>2317</v>
+        <v>2799</v>
       </c>
       <c r="N25">
-        <v>2317</v>
+        <v>2799</v>
       </c>
       <c r="O25">
-        <v>524</v>
+        <v>567</v>
       </c>
       <c r="P25">
-        <v>1793</v>
+        <v>2232</v>
       </c>
       <c r="Q25">
-        <v>1793</v>
+        <v>2232</v>
       </c>
       <c r="R25">
-        <v>271.25</v>
+        <v>271</v>
       </c>
       <c r="S25">
-        <v>13.22</v>
+        <v>16.46</v>
       </c>
       <c r="T25">
-        <v>13.21</v>
+        <v>16.45</v>
       </c>
       <c r="U25">
-        <v>13.22</v>
+        <v>16.46</v>
       </c>
       <c r="V25">
-        <v>13.21</v>
+        <v>16.45</v>
       </c>
     </row>
     <row r="26" spans="1:22">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C26">
-        <v>8130</v>
+        <v>8654</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="E26">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="F26">
-        <v>2444</v>
+        <v>2521</v>
       </c>
       <c r="G26">
-        <v>393</v>
+        <v>566</v>
       </c>
       <c r="H26">
-        <v>2486</v>
+        <v>2580</v>
       </c>
       <c r="I26">
-        <v>2778</v>
+        <v>2936</v>
       </c>
       <c r="J26">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="K26">
-        <v>2871</v>
+        <v>3063</v>
       </c>
       <c r="L26">
         <v>72</v>
       </c>
       <c r="M26">
-        <v>2799</v>
+        <v>2991</v>
       </c>
       <c r="N26">
-        <v>2799</v>
+        <v>2991</v>
       </c>
       <c r="O26">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="P26">
-        <v>2232</v>
+        <v>2444</v>
       </c>
       <c r="Q26">
-        <v>2232</v>
+        <v>2444</v>
       </c>
       <c r="R26">
-        <v>271</v>
+        <v>542.73</v>
       </c>
       <c r="S26">
-        <v>16.46</v>
+        <v>9.01</v>
       </c>
       <c r="T26">
-        <v>16.45</v>
+        <v>9.01</v>
       </c>
       <c r="U26">
-        <v>16.46</v>
+        <v>9.01</v>
       </c>
       <c r="V26">
-        <v>16.45</v>
+        <v>9.01</v>
       </c>
     </row>
     <row r="27" spans="1:22">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C27">
-        <v>8654</v>
+        <v>9057</v>
       </c>
       <c r="D27">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E27">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="F27">
-        <v>2521</v>
+        <v>2622</v>
       </c>
       <c r="G27">
-        <v>566</v>
+        <v>600</v>
       </c>
       <c r="H27">
-        <v>2580</v>
+        <v>2805</v>
       </c>
       <c r="I27">
-        <v>2936</v>
+        <v>2979</v>
       </c>
       <c r="J27">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="K27">
-        <v>3063</v>
+        <v>3137</v>
       </c>
       <c r="L27">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="M27">
-        <v>2991</v>
+        <v>3070</v>
       </c>
       <c r="N27">
-        <v>2991</v>
+        <v>3070</v>
       </c>
       <c r="O27">
-        <v>547</v>
+        <v>570</v>
       </c>
       <c r="P27">
-        <v>2444</v>
+        <v>2500</v>
       </c>
       <c r="Q27">
-        <v>2444</v>
+        <v>2500</v>
       </c>
       <c r="R27">
-        <v>542.73</v>
+        <v>543</v>
       </c>
       <c r="S27">
-        <v>9.01</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="T27">
-        <v>9.01</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="U27">
-        <v>9.01</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="V27">
-        <v>9.01</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="C28">
-        <v>9057</v>
+        <v>8362</v>
       </c>
       <c r="D28">
-        <v>51</v>
+        <v>31</v>
+      </c>
+      <c r="E28">
+        <v>-7</v>
       </c>
       <c r="F28">
-        <v>2622</v>
+        <v>2650</v>
       </c>
       <c r="G28">
-        <v>600</v>
+        <v>651</v>
       </c>
       <c r="H28">
-        <v>2805</v>
+        <v>2212</v>
       </c>
       <c r="I28">
-        <v>2979</v>
+        <v>2825</v>
       </c>
       <c r="J28">
-        <v>158</v>
+        <v>316</v>
       </c>
       <c r="K28">
-        <v>3137</v>
+        <v>3141</v>
       </c>
       <c r="L28">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M28">
-        <v>3070</v>
+        <v>3075</v>
       </c>
       <c r="N28">
-        <v>3070</v>
+        <v>3075</v>
       </c>
       <c r="O28">
-        <v>570</v>
+        <v>715</v>
       </c>
       <c r="P28">
-        <v>2500</v>
+        <v>2360</v>
       </c>
       <c r="Q28">
-        <v>2500</v>
+        <v>2360</v>
       </c>
       <c r="R28">
-        <v>543</v>
+        <v>542.73</v>
       </c>
       <c r="S28">
-        <v>9.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="T28">
-        <v>9.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="U28">
-        <v>9.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="V28">
-        <v>9.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:22">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C29">
-        <v>8362</v>
+        <v>8658</v>
       </c>
       <c r="D29">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E29">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="F29">
-        <v>2650</v>
+        <v>2835</v>
       </c>
       <c r="G29">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="H29">
-        <v>2212</v>
+        <v>2054</v>
       </c>
       <c r="I29">
-        <v>2825</v>
+        <v>3080</v>
       </c>
       <c r="J29">
-        <v>316</v>
+        <v>181</v>
       </c>
       <c r="K29">
-        <v>3141</v>
+        <v>3261</v>
       </c>
       <c r="L29">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="M29">
-        <v>3075</v>
+        <v>3234</v>
       </c>
       <c r="N29">
-        <v>3075</v>
+        <v>3234</v>
       </c>
       <c r="O29">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="P29">
-        <v>2360</v>
+        <v>2530</v>
       </c>
       <c r="Q29">
-        <v>2360</v>
+        <v>2530</v>
       </c>
       <c r="R29">
-        <v>542.73</v>
+        <v>543</v>
       </c>
       <c r="S29">
-        <v>8.699999999999999</v>
+        <v>9.32</v>
       </c>
       <c r="T29">
-        <v>8.699999999999999</v>
+        <v>9.32</v>
       </c>
       <c r="U29">
-        <v>8.699999999999999</v>
+        <v>9.32</v>
       </c>
       <c r="V29">
-        <v>8.699999999999999</v>
+        <v>9.32</v>
       </c>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C30">
-        <v>8658</v>
+        <v>9404</v>
       </c>
       <c r="D30">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E30">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>2835</v>
+        <v>2886</v>
       </c>
       <c r="G30">
-        <v>659</v>
+        <v>719</v>
       </c>
       <c r="H30">
-        <v>2054</v>
+        <v>2250</v>
       </c>
       <c r="I30">
-        <v>3080</v>
+        <v>3488</v>
       </c>
       <c r="J30">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="K30">
-        <v>3261</v>
+        <v>3706</v>
       </c>
       <c r="L30">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="M30">
-        <v>3234</v>
+        <v>3642</v>
       </c>
       <c r="N30">
-        <v>3234</v>
+        <v>3642</v>
       </c>
       <c r="O30">
-        <v>704</v>
+        <v>245</v>
       </c>
       <c r="P30">
-        <v>2530</v>
+        <v>3397</v>
       </c>
       <c r="Q30">
-        <v>2530</v>
+        <v>3397</v>
       </c>
       <c r="R30">
-        <v>543</v>
+        <v>542.73</v>
       </c>
       <c r="S30">
-        <v>9.32</v>
+        <v>12.52</v>
       </c>
       <c r="T30">
-        <v>9.32</v>
+        <v>12.52</v>
       </c>
       <c r="U30">
-        <v>9.32</v>
+        <v>12.52</v>
       </c>
       <c r="V30">
-        <v>9.32</v>
+        <v>12.52</v>
       </c>
     </row>
     <row r="31" spans="1:22">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C31">
-        <v>9404</v>
+        <v>9249</v>
       </c>
       <c r="D31">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F31">
-        <v>2886</v>
+        <v>3378</v>
       </c>
       <c r="G31">
-        <v>719</v>
+        <v>784</v>
       </c>
       <c r="H31">
-        <v>2250</v>
+        <v>2834</v>
       </c>
       <c r="I31">
-        <v>3488</v>
+        <v>2229</v>
       </c>
       <c r="J31">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="K31">
-        <v>3706</v>
+        <v>2479</v>
       </c>
       <c r="L31">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="M31">
-        <v>3642</v>
+        <v>2459</v>
       </c>
       <c r="N31">
-        <v>3642</v>
+        <v>2459</v>
       </c>
       <c r="O31">
-        <v>245</v>
+        <v>2003</v>
       </c>
       <c r="P31">
-        <v>3397</v>
+        <v>456</v>
       </c>
       <c r="Q31">
-        <v>3397</v>
+        <v>456</v>
       </c>
       <c r="R31">
-        <v>542.73</v>
+        <v>543</v>
       </c>
       <c r="S31">
-        <v>12.52</v>
+        <v>1.68</v>
       </c>
       <c r="T31">
-        <v>12.52</v>
+        <v>1.68</v>
       </c>
       <c r="U31">
-        <v>12.52</v>
+        <v>1.68</v>
       </c>
       <c r="V31">
-        <v>12.52</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C32">
-        <v>9249</v>
+        <v>9556</v>
       </c>
       <c r="D32">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E32">
-        <v>7</v>
+        <v>-13</v>
       </c>
       <c r="F32">
-        <v>3378</v>
+        <v>3440</v>
       </c>
       <c r="G32">
-        <v>784</v>
+        <v>660</v>
       </c>
       <c r="H32">
-        <v>2834</v>
+        <v>2358</v>
       </c>
       <c r="I32">
-        <v>2229</v>
+        <v>3082</v>
       </c>
       <c r="J32">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="K32">
-        <v>2479</v>
+        <v>3343</v>
       </c>
       <c r="L32">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M32">
-        <v>2459</v>
+        <v>3313</v>
       </c>
       <c r="N32">
-        <v>2459</v>
+        <v>3313</v>
       </c>
       <c r="O32">
-        <v>2003</v>
+        <v>641</v>
       </c>
       <c r="P32">
-        <v>456</v>
+        <v>2672</v>
       </c>
       <c r="Q32">
-        <v>456</v>
+        <v>2672</v>
       </c>
       <c r="R32">
         <v>543</v>
       </c>
       <c r="S32">
-        <v>1.68</v>
+        <v>9.85</v>
       </c>
       <c r="T32">
-        <v>1.68</v>
+        <v>9.85</v>
       </c>
       <c r="U32">
-        <v>1.68</v>
+        <v>9.84</v>
       </c>
       <c r="V32">
-        <v>1.68</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="33" spans="1:22">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="C33">
-        <v>9556</v>
+        <v>9786</v>
       </c>
       <c r="D33">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E33">
-        <v>-13</v>
+        <v>6</v>
       </c>
       <c r="F33">
-        <v>3440</v>
+        <v>3751</v>
       </c>
       <c r="G33">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="H33">
-        <v>2358</v>
+        <v>2351</v>
       </c>
       <c r="I33">
-        <v>3082</v>
+        <v>3000</v>
       </c>
       <c r="J33">
-        <v>261</v>
+        <v>177</v>
       </c>
       <c r="K33">
-        <v>3343</v>
+        <v>3177</v>
       </c>
       <c r="L33">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M33">
-        <v>3313</v>
+        <v>3152</v>
       </c>
       <c r="N33">
-        <v>3313</v>
+        <v>3152</v>
       </c>
       <c r="O33">
-        <v>641</v>
+        <v>590</v>
       </c>
       <c r="P33">
-        <v>2672</v>
+        <v>2562</v>
       </c>
       <c r="Q33">
-        <v>2672</v>
+        <v>2562</v>
       </c>
       <c r="R33">
         <v>543</v>
       </c>
       <c r="S33">
-        <v>9.85</v>
+        <v>9.44</v>
       </c>
       <c r="T33">
-        <v>9.85</v>
+        <v>9.44</v>
       </c>
       <c r="U33">
-        <v>9.84</v>
+        <v>9.44</v>
       </c>
       <c r="V33">
-        <v>9.85</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C34">
-        <v>9786</v>
+        <v>10662</v>
       </c>
       <c r="D34">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="E34">
-        <v>6</v>
+        <v>-7</v>
       </c>
       <c r="F34">
-        <v>3751</v>
+        <v>4200</v>
       </c>
       <c r="G34">
-        <v>644</v>
+        <v>728</v>
       </c>
       <c r="H34">
-        <v>2351</v>
+        <v>2510</v>
       </c>
       <c r="I34">
-        <v>3000</v>
+        <v>3172</v>
       </c>
       <c r="J34">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="K34">
-        <v>3177</v>
+        <v>3359</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M34">
-        <v>3152</v>
+        <v>3331</v>
       </c>
       <c r="N34">
-        <v>3152</v>
+        <v>3331</v>
       </c>
       <c r="O34">
-        <v>590</v>
+        <v>694</v>
       </c>
       <c r="P34">
-        <v>2562</v>
+        <v>2637</v>
       </c>
       <c r="Q34">
-        <v>2562</v>
+        <v>2637</v>
       </c>
       <c r="R34">
         <v>543</v>
       </c>
       <c r="S34">
-        <v>9.44</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="T34">
-        <v>9.44</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="U34">
-        <v>9.44</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="V34">
-        <v>9.44</v>
+        <v>9.720000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:22">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C35">
-        <v>10662</v>
+        <v>10634</v>
       </c>
       <c r="D35">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="E35">
-        <v>-7</v>
+        <v>9</v>
       </c>
       <c r="F35">
-        <v>4200</v>
+        <v>4481</v>
       </c>
       <c r="G35">
-        <v>728</v>
+        <v>583</v>
       </c>
       <c r="H35">
-        <v>2510</v>
+        <v>2285</v>
       </c>
       <c r="I35">
-        <v>3172</v>
+        <v>3243</v>
       </c>
       <c r="J35">
-        <v>187</v>
+        <v>255</v>
       </c>
       <c r="K35">
-        <v>3359</v>
+        <v>3498</v>
       </c>
       <c r="L35">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>3331</v>
+        <v>3472</v>
       </c>
       <c r="N35">
-        <v>3331</v>
+        <v>3472</v>
       </c>
       <c r="O35">
-        <v>694</v>
+        <v>469</v>
       </c>
       <c r="P35">
-        <v>2637</v>
+        <v>3003</v>
       </c>
       <c r="Q35">
-        <v>2637</v>
+        <v>3003</v>
       </c>
       <c r="R35">
         <v>543</v>
       </c>
       <c r="S35">
-        <v>9.720000000000001</v>
+        <v>11.09</v>
       </c>
       <c r="T35">
-        <v>9.720000000000001</v>
+        <v>11.09</v>
       </c>
       <c r="U35">
-        <v>9.720000000000001</v>
+        <v>11.09</v>
       </c>
       <c r="V35">
-        <v>9.720000000000001</v>
+        <v>11.09</v>
       </c>
     </row>
     <row r="36" spans="1:22">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="C36">
-        <v>10634</v>
+        <v>10817</v>
       </c>
       <c r="D36">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E36">
-        <v>9</v>
+        <v>-5</v>
       </c>
       <c r="F36">
-        <v>4481</v>
+        <v>4661</v>
       </c>
       <c r="G36">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="H36">
-        <v>2285</v>
+        <v>2363</v>
       </c>
       <c r="I36">
-        <v>3243</v>
+        <v>3181</v>
       </c>
       <c r="J36">
-        <v>255</v>
+        <v>334</v>
       </c>
       <c r="K36">
-        <v>3498</v>
+        <v>3515</v>
       </c>
       <c r="L36">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M36">
-        <v>3472</v>
+        <v>3488</v>
       </c>
       <c r="N36">
-        <v>3472</v>
+        <v>3488</v>
       </c>
       <c r="O36">
-        <v>469</v>
+        <v>810</v>
       </c>
       <c r="P36">
-        <v>3003</v>
+        <v>2678</v>
       </c>
       <c r="Q36">
-        <v>3003</v>
+        <v>2678</v>
       </c>
       <c r="R36">
         <v>543</v>
       </c>
       <c r="S36">
-        <v>11.09</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="T36">
-        <v>11.09</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="U36">
-        <v>11.09</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="V36">
-        <v>11.09</v>
+        <v>9.890000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:22">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C37">
-        <v>10817</v>
+        <v>11424</v>
       </c>
       <c r="D37">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E37">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="F37">
-        <v>4661</v>
+        <v>4899</v>
       </c>
       <c r="G37">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="H37">
-        <v>2363</v>
+        <v>2546</v>
       </c>
       <c r="I37">
-        <v>3181</v>
+        <v>3393</v>
       </c>
       <c r="J37">
-        <v>334</v>
+        <v>184</v>
       </c>
       <c r="K37">
-        <v>3515</v>
+        <v>3577</v>
       </c>
       <c r="L37">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M37">
-        <v>3488</v>
+        <v>3544</v>
       </c>
       <c r="N37">
-        <v>3488</v>
+        <v>3544</v>
       </c>
       <c r="O37">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="P37">
-        <v>2678</v>
+        <v>2741</v>
       </c>
       <c r="Q37">
-        <v>2678</v>
+        <v>2741</v>
       </c>
       <c r="R37">
         <v>543</v>
       </c>
       <c r="S37">
-        <v>9.890000000000001</v>
+        <v>10.12</v>
       </c>
       <c r="T37">
-        <v>9.890000000000001</v>
+        <v>10.12</v>
       </c>
       <c r="U37">
-        <v>9.890000000000001</v>
+        <v>10.12</v>
       </c>
       <c r="V37">
-        <v>9.890000000000001</v>
+        <v>10.12</v>
       </c>
     </row>
     <row r="38" spans="1:22">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38">
+        <v>12398</v>
+      </c>
+      <c r="D38">
         <v>83</v>
       </c>
-      <c r="C38">
-        <v>11424</v>
-      </c>
-      <c r="D38">
-        <v>29</v>
-      </c>
       <c r="E38">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="F38">
-        <v>4899</v>
+        <v>5100</v>
       </c>
       <c r="G38">
-        <v>560</v>
+        <v>686</v>
       </c>
       <c r="H38">
-        <v>2546</v>
+        <v>2666</v>
       </c>
       <c r="I38">
-        <v>3393</v>
+        <v>3870</v>
       </c>
       <c r="J38">
-        <v>184</v>
+        <v>288</v>
       </c>
       <c r="K38">
-        <v>3577</v>
+        <v>4158</v>
       </c>
       <c r="L38">
         <v>33</v>
       </c>
       <c r="M38">
-        <v>3544</v>
+        <v>4125</v>
       </c>
       <c r="N38">
-        <v>3544</v>
+        <v>4125</v>
       </c>
       <c r="O38">
-        <v>803</v>
+        <v>929</v>
       </c>
       <c r="P38">
-        <v>2741</v>
+        <v>3196</v>
       </c>
       <c r="Q38">
-        <v>2741</v>
+        <v>3196</v>
       </c>
       <c r="R38">
         <v>543</v>
       </c>
       <c r="S38">
-        <v>10.12</v>
+        <v>11.8</v>
       </c>
       <c r="T38">
-        <v>10.12</v>
+        <v>11.79</v>
       </c>
       <c r="U38">
-        <v>10.12</v>
+        <v>11.8</v>
       </c>
       <c r="V38">
-        <v>10.12</v>
+        <v>11.79</v>
       </c>
     </row>
     <row r="39" spans="1:22">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C39">
-        <v>12398</v>
+        <v>11637</v>
       </c>
       <c r="D39">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="E39">
-        <v>-7</v>
+        <v>3</v>
       </c>
       <c r="F39">
-        <v>5100</v>
+        <v>5139</v>
       </c>
       <c r="G39">
-        <v>686</v>
+        <v>599</v>
       </c>
       <c r="H39">
-        <v>2666</v>
+        <v>2503</v>
       </c>
       <c r="I39">
-        <v>3870</v>
+        <v>3368</v>
       </c>
       <c r="J39">
-        <v>288</v>
+        <v>225</v>
       </c>
       <c r="K39">
-        <v>4158</v>
+        <v>3593</v>
       </c>
       <c r="L39">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M39">
-        <v>4125</v>
+        <v>3559</v>
       </c>
       <c r="N39">
-        <v>4125</v>
+        <v>3559</v>
       </c>
       <c r="O39">
-        <v>929</v>
+        <v>715</v>
       </c>
       <c r="P39">
-        <v>3196</v>
+        <v>2844</v>
       </c>
       <c r="Q39">
-        <v>3196</v>
+        <v>2844</v>
       </c>
       <c r="R39">
         <v>543</v>
       </c>
       <c r="S39">
-        <v>11.8</v>
+        <v>10.5</v>
       </c>
       <c r="T39">
-        <v>11.79</v>
+        <v>10.49</v>
       </c>
       <c r="U39">
-        <v>11.8</v>
+        <v>10.5</v>
       </c>
       <c r="V39">
-        <v>11.79</v>
+        <v>10.49</v>
       </c>
     </row>
     <row r="40" spans="1:22">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="C40">
-        <v>11637</v>
+        <v>11451</v>
       </c>
       <c r="D40">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F40">
-        <v>5139</v>
+        <v>5185</v>
       </c>
       <c r="G40">
-        <v>599</v>
+        <v>506</v>
       </c>
       <c r="H40">
-        <v>2503</v>
+        <v>2547</v>
       </c>
       <c r="I40">
-        <v>3368</v>
+        <v>3176</v>
       </c>
       <c r="J40">
-        <v>225</v>
+        <v>262</v>
       </c>
       <c r="K40">
-        <v>3593</v>
+        <v>3438</v>
       </c>
       <c r="L40">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M40">
-        <v>3559</v>
+        <v>3409</v>
       </c>
       <c r="N40">
-        <v>3559</v>
+        <v>3409</v>
       </c>
       <c r="O40">
-        <v>715</v>
+        <v>813</v>
       </c>
       <c r="P40">
-        <v>2844</v>
+        <v>2596</v>
       </c>
       <c r="Q40">
-        <v>2844</v>
+        <v>2596</v>
       </c>
       <c r="R40">
         <v>543</v>
       </c>
       <c r="S40">
-        <v>10.5</v>
+        <v>9.59</v>
       </c>
       <c r="T40">
-        <v>10.49</v>
+        <v>9.57</v>
       </c>
       <c r="U40">
-        <v>10.5</v>
+        <v>9.59</v>
       </c>
       <c r="V40">
-        <v>10.49</v>
+        <v>9.57</v>
       </c>
     </row>
     <row r="41" spans="1:22">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C41">
-        <v>11451</v>
+        <v>12059</v>
       </c>
       <c r="D41">
         <v>30</v>
       </c>
       <c r="E41">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F41">
-        <v>5185</v>
+        <v>5305</v>
       </c>
       <c r="G41">
-        <v>506</v>
+        <v>583</v>
       </c>
       <c r="H41">
-        <v>2547</v>
+        <v>2402</v>
       </c>
       <c r="I41">
-        <v>3176</v>
+        <v>3731</v>
       </c>
       <c r="J41">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="K41">
-        <v>3438</v>
+        <v>3983</v>
       </c>
       <c r="L41">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M41">
-        <v>3409</v>
+        <v>3950</v>
       </c>
       <c r="N41">
-        <v>3409</v>
+        <v>3950</v>
       </c>
       <c r="O41">
-        <v>813</v>
+        <v>984</v>
       </c>
       <c r="P41">
-        <v>2596</v>
+        <v>2966</v>
       </c>
       <c r="Q41">
-        <v>2596</v>
+        <v>2966</v>
       </c>
       <c r="R41">
         <v>543</v>
       </c>
       <c r="S41">
-        <v>9.59</v>
+        <v>10.95</v>
       </c>
       <c r="T41">
-        <v>9.57</v>
+        <v>10.93</v>
       </c>
       <c r="U41">
-        <v>9.59</v>
+        <v>10.95</v>
       </c>
       <c r="V41">
-        <v>9.57</v>
+        <v>10.93</v>
       </c>
     </row>
     <row r="42" spans="1:22">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C42">
-        <v>12059</v>
+        <v>12531</v>
       </c>
       <c r="D42">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E42">
-        <v>8</v>
+        <v>-11</v>
       </c>
       <c r="F42">
-        <v>5305</v>
+        <v>5173</v>
       </c>
       <c r="G42">
-        <v>583</v>
+        <v>678</v>
       </c>
       <c r="H42">
-        <v>2402</v>
+        <v>2506</v>
       </c>
       <c r="I42">
-        <v>3731</v>
+        <v>4159</v>
       </c>
       <c r="J42">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="K42">
-        <v>3983</v>
+        <v>4420</v>
       </c>
       <c r="L42">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M42">
-        <v>3950</v>
+        <v>4391</v>
       </c>
       <c r="N42">
-        <v>3950</v>
+        <v>4391</v>
       </c>
       <c r="O42">
-        <v>984</v>
+        <v>1042</v>
       </c>
       <c r="P42">
-        <v>2966</v>
+        <v>3349</v>
       </c>
       <c r="Q42">
-        <v>2966</v>
+        <v>3349</v>
       </c>
       <c r="R42">
         <v>543</v>
       </c>
       <c r="S42">
-        <v>10.95</v>
+        <v>12.37</v>
       </c>
       <c r="T42">
-        <v>10.93</v>
+        <v>12.34</v>
       </c>
       <c r="U42">
-        <v>10.95</v>
+        <v>12.37</v>
       </c>
       <c r="V42">
-        <v>10.93</v>
+        <v>12.34</v>
       </c>
     </row>
     <row r="43" spans="1:22">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C43">
-        <v>12531</v>
+        <v>12077</v>
       </c>
       <c r="D43">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="E43">
-        <v>-11</v>
+        <v>6</v>
       </c>
       <c r="F43">
-        <v>5173</v>
+        <v>5302</v>
       </c>
       <c r="G43">
-        <v>678</v>
+        <v>604</v>
       </c>
       <c r="H43">
-        <v>2506</v>
+        <v>2677</v>
       </c>
       <c r="I43">
-        <v>4159</v>
+        <v>3439</v>
       </c>
       <c r="J43">
-        <v>261</v>
+        <v>301</v>
       </c>
       <c r="K43">
-        <v>4420</v>
+        <v>3740</v>
       </c>
       <c r="L43">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M43">
-        <v>4391</v>
+        <v>3706</v>
       </c>
       <c r="N43">
-        <v>4391</v>
+        <v>3706</v>
       </c>
       <c r="O43">
-        <v>1042</v>
+        <v>943</v>
       </c>
       <c r="P43">
-        <v>3349</v>
+        <v>2763</v>
       </c>
       <c r="Q43">
-        <v>3349</v>
+        <v>2763</v>
       </c>
       <c r="R43">
         <v>543</v>
       </c>
       <c r="S43">
-        <v>12.37</v>
+        <v>10.2</v>
       </c>
       <c r="T43">
-        <v>12.34</v>
+        <v>10.18</v>
       </c>
       <c r="U43">
-        <v>12.37</v>
+        <v>10.2</v>
       </c>
       <c r="V43">
-        <v>12.34</v>
+        <v>10.18</v>
       </c>
     </row>
     <row r="44" spans="1:22">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="C44">
-        <v>12077</v>
+        <v>11784</v>
       </c>
       <c r="D44">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E44">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F44">
-        <v>5302</v>
+        <v>5405</v>
       </c>
       <c r="G44">
-        <v>604</v>
+        <v>571</v>
       </c>
       <c r="H44">
-        <v>2677</v>
+        <v>2636</v>
       </c>
       <c r="I44">
-        <v>3439</v>
+        <v>3127</v>
       </c>
       <c r="J44">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="K44">
-        <v>3740</v>
+        <v>3448</v>
       </c>
       <c r="L44">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="M44">
-        <v>3706</v>
+        <v>3401</v>
       </c>
       <c r="N44">
-        <v>3706</v>
+        <v>3401</v>
       </c>
       <c r="O44">
-        <v>943</v>
+        <v>922</v>
       </c>
       <c r="P44">
-        <v>2763</v>
+        <v>2479</v>
       </c>
       <c r="Q44">
-        <v>2763</v>
+        <v>2479</v>
       </c>
       <c r="R44">
         <v>543</v>
       </c>
       <c r="S44">
-        <v>10.2</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="T44">
-        <v>10.18</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="U44">
-        <v>10.2</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="V44">
-        <v>10.18</v>
+        <v>9.140000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:22">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C45">
-        <v>11784</v>
+        <v>12615</v>
       </c>
       <c r="D45">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E45">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F45">
-        <v>5405</v>
+        <v>5501</v>
       </c>
       <c r="G45">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="H45">
-        <v>2636</v>
+        <v>2457</v>
       </c>
       <c r="I45">
-        <v>3127</v>
+        <v>4062</v>
       </c>
       <c r="J45">
-        <v>321</v>
+        <v>284</v>
       </c>
       <c r="K45">
-        <v>3448</v>
+        <v>4346</v>
       </c>
       <c r="L45">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M45">
-        <v>3401</v>
+        <v>4316</v>
       </c>
       <c r="N45">
-        <v>3401</v>
+        <v>4316</v>
       </c>
       <c r="O45">
-        <v>922</v>
+        <v>1100</v>
       </c>
       <c r="P45">
-        <v>2479</v>
+        <v>3216</v>
       </c>
       <c r="Q45">
-        <v>2479</v>
+        <v>3216</v>
       </c>
       <c r="R45">
         <v>543</v>
       </c>
       <c r="S45">
-        <v>9.140000000000001</v>
+        <v>11.87</v>
       </c>
       <c r="T45">
-        <v>9.140000000000001</v>
+        <v>11.86</v>
       </c>
       <c r="U45">
-        <v>9.140000000000001</v>
+        <v>11.87</v>
       </c>
       <c r="V45">
-        <v>9.140000000000001</v>
+        <v>11.86</v>
       </c>
     </row>
     <row r="46" spans="1:22">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C46">
-        <v>12615</v>
+        <v>13274</v>
       </c>
       <c r="D46">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F46">
-        <v>5501</v>
+        <v>5648</v>
       </c>
       <c r="G46">
-        <v>559</v>
+        <v>613</v>
       </c>
       <c r="H46">
-        <v>2457</v>
+        <v>2613</v>
       </c>
       <c r="I46">
-        <v>4062</v>
+        <v>4374</v>
       </c>
       <c r="J46">
-        <v>284</v>
+        <v>344</v>
       </c>
       <c r="K46">
-        <v>4346</v>
+        <v>4718</v>
       </c>
       <c r="L46">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M46">
-        <v>4316</v>
+        <v>4680</v>
       </c>
       <c r="N46">
-        <v>4316</v>
+        <v>4680</v>
       </c>
       <c r="O46">
-        <v>1100</v>
+        <v>1154</v>
       </c>
       <c r="P46">
-        <v>3216</v>
+        <v>3526</v>
       </c>
       <c r="Q46">
-        <v>3216</v>
+        <v>3526</v>
       </c>
       <c r="R46">
         <v>543</v>
       </c>
       <c r="S46">
-        <v>11.87</v>
+        <v>13.01</v>
       </c>
       <c r="T46">
-        <v>11.86</v>
+        <v>13</v>
       </c>
       <c r="U46">
-        <v>11.87</v>
+        <v>13.01</v>
       </c>
       <c r="V46">
-        <v>11.86</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47">
-        <v>13274</v>
-      </c>
-      <c r="D47">
-        <v>27</v>
-      </c>
-      <c r="E47">
-        <v>-1</v>
-      </c>
-      <c r="F47">
-        <v>5648</v>
-      </c>
-      <c r="G47">
-        <v>613</v>
-      </c>
-      <c r="H47">
-        <v>2613</v>
-      </c>
-      <c r="I47">
-        <v>4374</v>
-      </c>
-      <c r="J47">
-        <v>344</v>
-      </c>
-      <c r="K47">
-        <v>4718</v>
-      </c>
-      <c r="L47">
-        <v>38</v>
-      </c>
-      <c r="M47">
-        <v>4680</v>
-      </c>
-      <c r="N47">
-        <v>4680</v>
-      </c>
-      <c r="O47">
-        <v>1154</v>
-      </c>
-      <c r="P47">
-        <v>3526</v>
-      </c>
-      <c r="Q47">
-        <v>3526</v>
-      </c>
-      <c r="R47">
-        <v>543</v>
-      </c>
-      <c r="S47">
-        <v>13.01</v>
-      </c>
-      <c r="T47">
-        <v>13</v>
-      </c>
-      <c r="U47">
-        <v>13.01</v>
-      </c>
-      <c r="V47">
         <v>13</v>
       </c>
     </row>
